--- a/History.xlsx
+++ b/History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranbi\Documents\GitHub\MLProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DB06F0-57E8-4BA2-92C7-FFF5F03DD6D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36059C12-E2C5-44A1-98E7-EB7C1DE6EF41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{D363ED65-AD21-4BD7-99A2-D68D4CD16400}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Sequence</t>
   </si>
@@ -227,15 +227,75 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,73 +305,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,137 +628,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9533355D-40C9-4C48-A751-F9150BB52E24}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="15"/>
-    <col min="2" max="2" width="8.83984375" style="16"/>
-    <col min="3" max="3" width="8.83984375" style="17"/>
-    <col min="4" max="4" width="8.83984375" style="27"/>
-    <col min="5" max="5" width="8.83984375" style="18"/>
-    <col min="6" max="6" width="8.83984375" style="29"/>
-    <col min="7" max="7" width="8.83984375" style="20"/>
-    <col min="8" max="9" width="8.83984375" style="22"/>
-    <col min="10" max="10" width="11.68359375" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5234375" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26171875" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="8.83984375" style="15"/>
+    <col min="1" max="1" width="8.83984375" style="6"/>
+    <col min="2" max="2" width="8.83984375" style="7"/>
+    <col min="3" max="3" width="8.83984375" style="8"/>
+    <col min="4" max="4" width="8.83984375" style="18"/>
+    <col min="5" max="5" width="8.83984375" style="9"/>
+    <col min="6" max="6" width="8.83984375" style="20"/>
+    <col min="7" max="7" width="8.83984375" style="11"/>
+    <col min="8" max="9" width="8.83984375" style="13"/>
+    <col min="10" max="10" width="11.68359375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5234375" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.26171875" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.83984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="8">
         <v>38</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="18">
         <v>38</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="20">
         <v>19</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="15">
         <v>0.341991126658233</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="16">
         <v>2.3819737631451599</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>38</v>
+      </c>
+      <c r="D4" s="20">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0.26219472950066203</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1.32702764734719</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
